--- a/conf-core/src/test/resources/dataloader/conf-data-ctypes.xlsx
+++ b/conf-core/src/test/resources/dataloader/conf-data-ctypes.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="675" yWindow="-240" windowWidth="18060" windowHeight="9345"/>
+    <workbookView xWindow="672" yWindow="-240" windowWidth="18060" windowHeight="9348"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="888">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="884">
   <si>
     <t>Master Component Types List</t>
   </si>
@@ -292,18 +292,6 @@
   </si>
   <si>
     <t>Subsystem</t>
-  </si>
-  <si>
-    <t>_ROOT</t>
-  </si>
-  <si>
-    <t>Root Component</t>
-  </si>
-  <si>
-    <t>_GRP</t>
-  </si>
-  <si>
-    <t>Component Group</t>
   </si>
   <si>
     <t>From Exisiting DB/Naming convention</t>
@@ -3023,30 +3011,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L569"/>
+  <dimension ref="A1:L567"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48:XFD49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="15.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="72.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="15.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="1"/>
+    <col min="5" max="5" width="72.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5546875" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3056,7 +3044,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3064,12 +3052,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>4</v>
@@ -3093,7 +3081,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I6" s="2" t="s">
         <v>11</v>
       </c>
@@ -3107,7 +3095,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
@@ -3136,7 +3124,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">
         <v>21</v>
@@ -3157,7 +3145,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -3166,7 +3154,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
@@ -3198,7 +3186,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
@@ -3230,7 +3218,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
@@ -3262,7 +3250,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -3271,12 +3259,12 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>4</v>
@@ -3297,7 +3285,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I15" s="2" t="s">
         <v>11</v>
       </c>
@@ -3306,7 +3294,7 @@
       </c>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="1" t="s">
         <v>14</v>
       </c>
@@ -3330,7 +3318,7 @@
       </c>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="F17" s="2"/>
       <c r="G17" s="2" t="s">
         <v>21</v>
@@ -3346,7 +3334,7 @@
       </c>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -3354,7 +3342,7 @@
       <c r="J18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
@@ -3376,13 +3364,13 @@
       <c r="I19" s="2">
         <v>35</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19" s="2" t="e">
         <f>+I19*H19/2</f>
-        <v>0.875</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -3404,13 +3392,13 @@
       <c r="I20" s="2">
         <v>30</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J20" s="2" t="e">
         <f>+I20*H20/2</f>
-        <v>11.25</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
@@ -3432,13 +3420,13 @@
       <c r="I21" s="2">
         <v>30</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J21" s="2" t="e">
         <f>+I21*H21/2</f>
-        <v>11.25</v>
+        <v>#VALUE!</v>
       </c>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -3447,12 +3435,12 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>4</v>
@@ -3471,7 +3459,7 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I24" s="2" t="s">
         <v>55</v>
       </c>
@@ -3479,7 +3467,7 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>14</v>
       </c>
@@ -3500,7 +3488,7 @@
       </c>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="F26" s="2"/>
       <c r="G26" s="2" t="s">
         <v>21</v>
@@ -3513,14 +3501,14 @@
       </c>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
@@ -3544,7 +3532,7 @@
       </c>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>25</v>
       </c>
@@ -3567,7 +3555,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>25</v>
       </c>
@@ -3590,12 +3578,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>4</v>
@@ -3613,7 +3601,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I33" s="2" t="s">
         <v>55</v>
       </c>
@@ -3621,7 +3609,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>14</v>
       </c>
@@ -3644,7 +3632,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F35" s="2"/>
       <c r="G35" s="2" t="s">
         <v>21</v>
@@ -3659,13 +3647,13 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>25</v>
       </c>
@@ -3691,7 +3679,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>25</v>
       </c>
@@ -3717,7 +3705,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>25</v>
       </c>
@@ -3743,7 +3731,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>25</v>
       </c>
@@ -3769,22 +3757,22 @@
         <v>87</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I44" s="2"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I45" s="2"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>25</v>
       </c>
@@ -3795,7 +3783,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>25</v>
       </c>
@@ -3806,76 +3794,76 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C48" s="1" t="s">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B49" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E48" s="1" t="s">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C49" s="1" t="s">
+      <c r="E51" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="1" t="s">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C53" s="1" t="s">
+      <c r="E53" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E53" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="E54"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C55" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E55" s="1" t="s">
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C56" s="1" t="s">
+      <c r="E56" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E56"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>25</v>
       </c>
@@ -3886,65 +3874,65 @@
         <v>104</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="E58"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C59" s="1" t="s">
+      <c r="E59"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="E60"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C60" s="1" t="s">
+      <c r="E61"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E60"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C61" s="1" t="s">
+      <c r="E62" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E61"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C62" s="1" t="s">
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E62"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C63" s="1" t="s">
+      <c r="E63" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E63"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>25</v>
       </c>
@@ -3955,7 +3943,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>25</v>
       </c>
@@ -3966,89 +3954,89 @@
         <v>116</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="E66"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C67" s="1" t="s">
+      <c r="E67" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E67" s="1" t="s">
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C68" s="1" t="s">
+      <c r="E68"/>
+    </row>
+    <row r="69" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E68"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C69" s="1" t="s">
+      <c r="E69" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E69" s="1" t="s">
+    </row>
+    <row r="70" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C70" s="1" t="s">
+      <c r="E70" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E70"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="E71"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C72" s="1" t="s">
+      <c r="E72" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E72" s="1" t="s">
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C73" s="1" t="s">
+      <c r="E73" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E73"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>25</v>
       </c>
@@ -4059,56 +4047,56 @@
         <v>131</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="E75"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C76" s="1" t="s">
+      <c r="E76"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="E77"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C77" s="1" t="s">
+      <c r="E78" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E77"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C78" s="1" t="s">
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E78"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C79" s="1" t="s">
+      <c r="E79" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E79"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>25</v>
       </c>
@@ -4119,7 +4107,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>25</v>
       </c>
@@ -4130,56 +4118,56 @@
         <v>142</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E82" s="1" t="s">
+      <c r="E82"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C83" s="1" t="s">
+      <c r="E83"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E83" s="1" t="s">
+      <c r="E84"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C84" s="1" t="s">
+      <c r="E85" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E84"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C85" s="1" t="s">
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="E85"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C86" s="1" t="s">
+      <c r="E86" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E86"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>25</v>
       </c>
@@ -4190,7 +4178,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>25</v>
       </c>
@@ -4201,101 +4189,101 @@
         <v>153</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="E89" s="1" t="s">
+      <c r="E89"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C90" s="1" t="s">
+      <c r="E90"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="E90" s="1" t="s">
+      <c r="E91"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C91" s="1" t="s">
+      <c r="E92"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E91"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C92" s="1" t="s">
+      <c r="E93"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="E92"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C93" s="1" t="s">
+      <c r="E94"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E93"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C94" s="1" t="s">
+      <c r="E95"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C96" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E94"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C95" s="1" t="s">
+      <c r="E96"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C97" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E95"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C96" s="1" t="s">
+      <c r="E97" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="E96"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C97" s="1" t="s">
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="E97"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C98" s="1" t="s">
+      <c r="E98" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E98"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>25</v>
       </c>
@@ -4306,7 +4294,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>25</v>
       </c>
@@ -4317,7 +4305,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>25</v>
       </c>
@@ -4328,7 +4316,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>25</v>
       </c>
@@ -4339,7 +4327,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>25</v>
       </c>
@@ -4350,7 +4338,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>25</v>
       </c>
@@ -4361,7 +4349,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>25</v>
       </c>
@@ -4372,7 +4360,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>25</v>
       </c>
@@ -4383,7 +4371,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>25</v>
       </c>
@@ -4394,7 +4382,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>25</v>
       </c>
@@ -4405,7 +4393,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>25</v>
       </c>
@@ -4416,7 +4404,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>25</v>
       </c>
@@ -4427,7 +4415,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>25</v>
       </c>
@@ -4438,7 +4426,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>25</v>
       </c>
@@ -4449,7 +4437,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>25</v>
       </c>
@@ -4460,7 +4448,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>25</v>
       </c>
@@ -4471,7 +4459,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>25</v>
       </c>
@@ -4482,7 +4470,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>25</v>
       </c>
@@ -4493,7 +4481,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>25</v>
       </c>
@@ -4504,7 +4492,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>25</v>
       </c>
@@ -4515,7 +4503,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>25</v>
       </c>
@@ -4526,65 +4514,65 @@
         <v>207</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="E120" s="1" t="s">
+      <c r="E120"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C121" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C121" s="1" t="s">
+      <c r="E121"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C122" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E121" s="1" t="s">
+      <c r="E122"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C123" s="1" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C122" s="1" t="s">
+      <c r="E123"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C124" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="E122"/>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C123" s="1" t="s">
+      <c r="E124" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="E123"/>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C124" s="1" t="s">
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C125" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="E124"/>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C125" s="1" t="s">
+      <c r="E125" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="E125"/>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>25</v>
       </c>
@@ -4595,7 +4583,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>25</v>
       </c>
@@ -4606,100 +4594,100 @@
         <v>219</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="E128" s="1" t="s">
+      <c r="E128"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C132" s="1" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C129" s="1" t="s">
+      <c r="E132" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="E129" s="1" t="s">
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C133" s="1" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C130" s="1" t="s">
+      <c r="E133"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C134" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="E130"/>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C134" s="1" t="s">
+      <c r="E134"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C135" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="E134" s="1" t="s">
+      <c r="E135" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C135" s="1" t="s">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C136" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="E135"/>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C136" s="1" t="s">
+      <c r="E136" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="E136"/>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>25</v>
       </c>
@@ -4710,40 +4698,40 @@
         <v>230</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C138" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C139" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="E138" s="1" t="s">
+      <c r="E139" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C139" s="1" t="s">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C140" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="E139" s="1" t="s">
+      <c r="E140" s="1" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>25</v>
       </c>
@@ -4754,73 +4742,73 @@
         <v>236</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C142" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C146" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="E142" s="1" t="s">
+      <c r="E146" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C143" s="1" t="s">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C147" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="E143" s="1" t="s">
+      <c r="E147" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>25</v>
       </c>
@@ -4831,7 +4819,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>25</v>
       </c>
@@ -4842,7 +4830,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>25</v>
       </c>
@@ -4853,7 +4841,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>25</v>
       </c>
@@ -4864,7 +4852,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>25</v>
       </c>
@@ -4875,7 +4863,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>25</v>
       </c>
@@ -4886,49 +4874,49 @@
         <v>252</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="E154" s="1" t="s">
+      <c r="E154"/>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C155" s="1" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C155" s="1" t="s">
+      <c r="E155" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C156" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="E155" s="1" t="s">
+      <c r="E156" s="1" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C156" s="1" t="s">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C157" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="E156"/>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C157" s="1" t="s">
+      <c r="E157" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="E157" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>25</v>
       </c>
@@ -4939,7 +4927,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>25</v>
       </c>
@@ -4950,7 +4938,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>25</v>
       </c>
@@ -4961,7 +4949,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>25</v>
       </c>
@@ -4972,7 +4960,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>25</v>
       </c>
@@ -4983,7 +4971,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>25</v>
       </c>
@@ -4994,7 +4982,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>25</v>
       </c>
@@ -5005,7 +4993,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>25</v>
       </c>
@@ -5016,7 +5004,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>25</v>
       </c>
@@ -5027,7 +5015,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>25</v>
       </c>
@@ -5038,7 +5026,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>25</v>
       </c>
@@ -5049,47 +5037,47 @@
         <v>280</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="E169" s="1" t="s">
+      <c r="E169"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A170" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C170" s="1" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C170" s="1" t="s">
+      <c r="E170"/>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A171" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C171" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="E170" s="1" t="s">
+      <c r="E171" s="1" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C171" s="1" t="s">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A172" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C172" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="E171"/>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C172" s="1" t="s">
+      <c r="E172" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="E172"/>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>25</v>
       </c>
@@ -5100,7 +5088,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>25</v>
       </c>
@@ -5111,7 +5099,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>25</v>
       </c>
@@ -5122,7 +5110,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>25</v>
       </c>
@@ -5133,7 +5121,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>25</v>
       </c>
@@ -5144,7 +5132,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>25</v>
       </c>
@@ -5155,7 +5143,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>25</v>
       </c>
@@ -5166,7 +5154,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>25</v>
       </c>
@@ -5177,7 +5165,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>25</v>
       </c>
@@ -5188,7 +5176,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>25</v>
       </c>
@@ -5199,7 +5187,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>25</v>
       </c>
@@ -5210,7 +5198,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>25</v>
       </c>
@@ -5221,7 +5209,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>25</v>
       </c>
@@ -5232,7 +5220,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>25</v>
       </c>
@@ -5243,7 +5231,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>25</v>
       </c>
@@ -5254,7 +5242,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>25</v>
       </c>
@@ -5265,7 +5253,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>25</v>
       </c>
@@ -5276,7 +5264,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>25</v>
       </c>
@@ -5287,7 +5275,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>25</v>
       </c>
@@ -5298,7 +5286,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>25</v>
       </c>
@@ -5309,7 +5297,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>25</v>
       </c>
@@ -5320,7 +5308,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>25</v>
       </c>
@@ -5331,7 +5319,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>25</v>
       </c>
@@ -5342,7 +5330,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>25</v>
       </c>
@@ -5353,7 +5341,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>25</v>
       </c>
@@ -5364,7 +5352,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>25</v>
       </c>
@@ -5375,38 +5363,38 @@
         <v>338</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="E199" s="1" t="s">
+      <c r="E199"/>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A200" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C200" s="1" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A200" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C200" s="1" t="s">
+      <c r="E200" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="E200" s="1" t="s">
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A201" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C201" s="1" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C201" s="1" t="s">
+      <c r="E201" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="E201"/>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>25</v>
       </c>
@@ -5417,7 +5405,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>25</v>
       </c>
@@ -5428,7 +5416,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>25</v>
       </c>
@@ -5439,7 +5427,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>25</v>
       </c>
@@ -5450,7 +5438,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>25</v>
       </c>
@@ -5461,7 +5449,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>25</v>
       </c>
@@ -5472,7 +5460,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>25</v>
       </c>
@@ -5483,467 +5471,467 @@
         <v>357</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="E209" s="1" t="s">
+      <c r="E209"/>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A210" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C210" s="1" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A210" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C210" s="1" t="s">
+      <c r="E210"/>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A211" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C211" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="E210" s="1" t="s">
+      <c r="E211"/>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A212" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C212" s="1" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A211" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C211" s="1" t="s">
+      <c r="E212"/>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A213" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C213" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="E211"/>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A212" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C212" s="1" t="s">
+      <c r="E213" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="E212"/>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A213" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C213" s="1" t="s">
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A214" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C214" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="E213"/>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A214" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C214" s="1" t="s">
+      <c r="E214"/>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A215" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C215" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="E214"/>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A215" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C215" s="1" t="s">
+      <c r="E215"/>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A216" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C216" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="E215" s="1" t="s">
+      <c r="E216"/>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A217" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C217" s="1" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A216" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C216" s="1" t="s">
+      <c r="E217"/>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A218" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C218" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="E216"/>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A217" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C217" s="1" t="s">
+      <c r="E218"/>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A219" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C219" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="E217"/>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A218" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C218" s="1" t="s">
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A220" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C220" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="E218"/>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A219" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C219" s="1" t="s">
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A221" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C221" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="E219"/>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A220" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C220" s="1" t="s">
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A222" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C222" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="E220"/>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A221" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C221" s="1" t="s">
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A223" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C223" s="1" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A222" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C222" s="1" t="s">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A224" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C224" s="1" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A223" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C223" s="1" t="s">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A225" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C225" s="1" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A224" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C224" s="1" t="s">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A226" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C226" s="1" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A225" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C225" s="1" t="s">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A227" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C227" s="1" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A226" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C226" s="1" t="s">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A228" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C228" s="1" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A227" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C227" s="1" t="s">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A229" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C229" s="1" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A228" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C228" s="1" t="s">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A230" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C230" s="1" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A229" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C229" s="1" t="s">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A231" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C231" s="1" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A230" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C230" s="1" t="s">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A232" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C232" s="1" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A231" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C231" s="1" t="s">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A233" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C233" s="1" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A232" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C232" s="1" t="s">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A234" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C234" s="1" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A233" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C233" s="1" t="s">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A235" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C235" s="1" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A234" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C234" s="1" t="s">
+      <c r="E235"/>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A236" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C236" s="1" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A235" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C235" s="1" t="s">
+      <c r="E236"/>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A237" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C237" s="1" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A236" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C236" s="1" t="s">
+      <c r="E237"/>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A238" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C238" s="1" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A237" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C237" s="1" t="s">
+      <c r="E238" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="E237"/>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A238" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C238" s="1" t="s">
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A239" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C239" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="E238"/>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A239" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C239" s="1" t="s">
+      <c r="E239"/>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A240" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C240" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="E239"/>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A240" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C240" s="1" t="s">
+      <c r="E240"/>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A241" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C241" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="E240" s="1" t="s">
+      <c r="E241"/>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A242" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C242" s="1" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A241" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C241" s="1" t="s">
+      <c r="E242"/>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A243" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C243" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="E241"/>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A242" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C242" s="1" t="s">
+      <c r="E243"/>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A244" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C244" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="E242"/>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A243" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C243" s="1" t="s">
+      <c r="E244"/>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A245" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C245" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="E243"/>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A244" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C244" s="1" t="s">
+      <c r="E245"/>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A246" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C246" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="E244"/>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A245" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C245" s="1" t="s">
+      <c r="E246"/>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A247" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C247" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="E245"/>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A246" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C246" s="1" t="s">
+      <c r="E247"/>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A248" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C248" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="E246"/>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A247" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C247" s="1" t="s">
+      <c r="E248"/>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A249" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C249" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="E247"/>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A248" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C248" s="1" t="s">
+      <c r="E249"/>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A250" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C250" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="E248"/>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A249" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C249" s="1" t="s">
+      <c r="E250"/>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A251" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C251" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="E249"/>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A250" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C250" s="1" t="s">
+      <c r="E251"/>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A252" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C252" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="E250"/>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A251" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C251" s="1" t="s">
+      <c r="E252"/>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A253" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C253" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="E251"/>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A252" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C252" s="1" t="s">
+      <c r="E253"/>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A254" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C254" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="E252"/>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A253" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C253" s="1" t="s">
+      <c r="E254"/>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A255" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C255" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="E253"/>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A254" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C254" s="1" t="s">
+      <c r="E255"/>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A256" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C256" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="E254"/>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A255" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C255" s="1" t="s">
+      <c r="E256"/>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A257" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C257" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="E255"/>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A256" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C256" s="1" t="s">
+      <c r="E257"/>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A258" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C258" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="E256"/>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A257" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C257" s="1" t="s">
+      <c r="E258"/>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A259" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C259" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="E257"/>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A258" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C258" s="1" t="s">
+      <c r="E259" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="E258"/>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A259" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C259" s="1" t="s">
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A260" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C260" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="E259"/>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A260" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C260" s="1" t="s">
+      <c r="E260" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="E260"/>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
         <v>25</v>
       </c>
@@ -5954,7 +5942,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
         <v>25</v>
       </c>
@@ -5965,7 +5953,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
         <v>25</v>
       </c>
@@ -5976,7 +5964,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
         <v>25</v>
       </c>
@@ -5987,7 +5975,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
         <v>25</v>
       </c>
@@ -5998,47 +5986,47 @@
         <v>423</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C266" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="E266" s="1" t="s">
+      <c r="E266"/>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A267" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C267" s="1" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A267" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C267" s="1" t="s">
+      <c r="E267"/>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A268" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C268" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="E267" s="1" t="s">
+      <c r="E268" s="1" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A268" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C268" s="1" t="s">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A269" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C269" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="E268"/>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A269" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C269" s="1" t="s">
+      <c r="E269" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="E269"/>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
         <v>25</v>
       </c>
@@ -6049,7 +6037,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
         <v>25</v>
       </c>
@@ -6060,7 +6048,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
         <v>25</v>
       </c>
@@ -6071,7 +6059,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
         <v>25</v>
       </c>
@@ -6082,7 +6070,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
         <v>25</v>
       </c>
@@ -6093,7 +6081,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
         <v>25</v>
       </c>
@@ -6104,7 +6092,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
         <v>25</v>
       </c>
@@ -6115,7 +6103,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" s="1" t="s">
         <v>25</v>
       </c>
@@ -6126,7 +6114,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
         <v>25</v>
       </c>
@@ -6137,38 +6125,38 @@
         <v>447</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C279" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="E279" s="1" t="s">
+      <c r="E279"/>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A280" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C280" s="1" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A280" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C280" s="1" t="s">
+      <c r="E280" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="E280" s="1" t="s">
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A281" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C281" s="1" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A281" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C281" s="1" t="s">
+      <c r="E281" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="E281"/>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
         <v>25</v>
       </c>
@@ -6179,7 +6167,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
         <v>25</v>
       </c>
@@ -6190,7 +6178,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
         <v>25</v>
       </c>
@@ -6201,7 +6189,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
         <v>25</v>
       </c>
@@ -6212,7 +6200,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
         <v>25</v>
       </c>
@@ -6223,7 +6211,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
         <v>25</v>
       </c>
@@ -6234,7 +6222,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
         <v>25</v>
       </c>
@@ -6245,7 +6233,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
         <v>25</v>
       </c>
@@ -6256,7 +6244,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
         <v>25</v>
       </c>
@@ -6267,7 +6255,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" s="1" t="s">
         <v>25</v>
       </c>
@@ -6278,7 +6266,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
         <v>25</v>
       </c>
@@ -6289,7 +6277,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" s="1" t="s">
         <v>25</v>
       </c>
@@ -6300,7 +6288,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
         <v>25</v>
       </c>
@@ -6311,7 +6299,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" s="1" t="s">
         <v>25</v>
       </c>
@@ -6322,7 +6310,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
         <v>25</v>
       </c>
@@ -6333,7 +6321,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" s="1" t="s">
         <v>25</v>
       </c>
@@ -6344,7 +6332,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
         <v>25</v>
       </c>
@@ -6355,7 +6343,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" s="1" t="s">
         <v>25</v>
       </c>
@@ -6366,7 +6354,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" s="1" t="s">
         <v>25</v>
       </c>
@@ -6377,7 +6365,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" s="1" t="s">
         <v>25</v>
       </c>
@@ -6388,7 +6376,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
         <v>25</v>
       </c>
@@ -6399,7 +6387,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" s="1" t="s">
         <v>25</v>
       </c>
@@ -6410,7 +6398,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
         <v>25</v>
       </c>
@@ -6421,7 +6409,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305" s="1" t="s">
         <v>25</v>
       </c>
@@ -6432,7 +6420,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
         <v>25</v>
       </c>
@@ -6443,7 +6431,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307" s="1" t="s">
         <v>25</v>
       </c>
@@ -6454,7 +6442,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
         <v>25</v>
       </c>
@@ -6465,7 +6453,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309" s="1" t="s">
         <v>25</v>
       </c>
@@ -6476,7 +6464,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
         <v>25</v>
       </c>
@@ -6487,7 +6475,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311" s="1" t="s">
         <v>25</v>
       </c>
@@ -6498,7 +6486,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
         <v>25</v>
       </c>
@@ -6509,7 +6497,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" s="1" t="s">
         <v>25</v>
       </c>
@@ -6520,7 +6508,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
         <v>25</v>
       </c>
@@ -6531,7 +6519,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" s="1" t="s">
         <v>25</v>
       </c>
@@ -6542,7 +6530,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="s">
         <v>25</v>
       </c>
@@ -6553,7 +6541,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" s="1" t="s">
         <v>25</v>
       </c>
@@ -6564,7 +6552,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" s="1" t="s">
         <v>25</v>
       </c>
@@ -6575,7 +6563,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" s="1" t="s">
         <v>25</v>
       </c>
@@ -6586,7 +6574,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="s">
         <v>25</v>
       </c>
@@ -6597,7 +6585,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" s="1" t="s">
         <v>25</v>
       </c>
@@ -6608,7 +6596,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
         <v>25</v>
       </c>
@@ -6619,7 +6607,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" s="1" t="s">
         <v>25</v>
       </c>
@@ -6630,7 +6618,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
         <v>25</v>
       </c>
@@ -6641,7 +6629,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" s="1" t="s">
         <v>25</v>
       </c>
@@ -6652,7 +6640,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
         <v>25</v>
       </c>
@@ -6663,7 +6651,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" s="1" t="s">
         <v>25</v>
       </c>
@@ -6674,7 +6662,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328" s="1" t="s">
         <v>25</v>
       </c>
@@ -6685,7 +6673,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" s="1" t="s">
         <v>25</v>
       </c>
@@ -6696,7 +6684,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
         <v>25</v>
       </c>
@@ -6707,7 +6695,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" s="1" t="s">
         <v>25</v>
       </c>
@@ -6718,7 +6706,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" s="1" t="s">
         <v>25</v>
       </c>
@@ -6729,7 +6717,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" s="1" t="s">
         <v>25</v>
       </c>
@@ -6740,7 +6728,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" s="1" t="s">
         <v>25</v>
       </c>
@@ -6751,7 +6739,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" s="1" t="s">
         <v>25</v>
       </c>
@@ -6762,56 +6750,56 @@
         <v>560</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C336" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="E336" s="1" t="s">
+      <c r="E336"/>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A337" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C337" s="1" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A337" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C337" s="1" t="s">
+      <c r="E337"/>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A338" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C338" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="E337" s="1" t="s">
+      <c r="E338"/>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A339" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C339" s="1" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A338" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C338" s="1" t="s">
+      <c r="E339" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="E338"/>
-    </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A339" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C339" s="1" t="s">
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A340" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C340" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="E339"/>
-    </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A340" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C340" s="1" t="s">
+      <c r="E340" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="E340"/>
-    </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" s="1" t="s">
         <v>25</v>
       </c>
@@ -6822,7 +6810,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="s">
         <v>25</v>
       </c>
@@ -6833,7 +6821,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343" s="1" t="s">
         <v>25</v>
       </c>
@@ -6844,7 +6832,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344" s="1" t="s">
         <v>25</v>
       </c>
@@ -6855,7 +6843,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345" s="1" t="s">
         <v>25</v>
       </c>
@@ -6866,7 +6854,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346" s="1" t="s">
         <v>25</v>
       </c>
@@ -6877,7 +6865,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347" s="1" t="s">
         <v>25</v>
       </c>
@@ -6885,43 +6873,43 @@
         <v>580</v>
       </c>
       <c r="E347" s="1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A348" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C348" s="1" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A348" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C348" s="1" t="s">
+      <c r="E348" s="1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A349" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C349" s="1" t="s">
         <v>582</v>
-      </c>
-      <c r="E348" s="1" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A349" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C349" s="1" t="s">
-        <v>584</v>
       </c>
       <c r="E349" s="1" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C350" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="E350" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="E350" s="1" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351" s="1" t="s">
         <v>25</v>
       </c>
@@ -6932,7 +6920,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A352" s="1" t="s">
         <v>25</v>
       </c>
@@ -6943,38 +6931,38 @@
         <v>589</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A353" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C353" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="E353" s="1" t="s">
+      <c r="E353"/>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A354" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C354" s="1" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A354" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C354" s="1" t="s">
+      <c r="E354" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="E354" s="1" t="s">
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A355" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C355" s="1" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A355" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C355" s="1" t="s">
+      <c r="E355" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="E355"/>
-    </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A356" s="1" t="s">
         <v>25</v>
       </c>
@@ -6985,7 +6973,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A357" s="1" t="s">
         <v>25</v>
       </c>
@@ -6996,7 +6984,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A358" s="1" t="s">
         <v>25</v>
       </c>
@@ -7007,7 +6995,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A359" s="1" t="s">
         <v>25</v>
       </c>
@@ -7018,7 +7006,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A360" s="1" t="s">
         <v>25</v>
       </c>
@@ -7029,56 +7017,56 @@
         <v>604</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A361" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C361" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="E361" s="1" t="s">
+      <c r="E361"/>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A362" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C362" s="1" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A362" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C362" s="1" t="s">
+      <c r="E362"/>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A363" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C363" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="E362" s="1" t="s">
+      <c r="E363"/>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A364" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C364" s="1" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A363" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C363" s="1" t="s">
+      <c r="E364" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="E363"/>
-    </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A364" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C364" s="1" t="s">
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A365" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C365" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="E364"/>
-    </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A365" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C365" s="1" t="s">
+      <c r="E365" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="E365"/>
-    </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A366" s="1" t="s">
         <v>25</v>
       </c>
@@ -7089,56 +7077,56 @@
         <v>613</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A367" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C367" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="E367" s="1" t="s">
+      <c r="E367"/>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A368" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C368" s="1" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A368" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C368" s="1" t="s">
+      <c r="E368"/>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A369" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C369" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="E368" s="1" t="s">
+      <c r="E369"/>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A370" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C370" s="1" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A369" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C369" s="1" t="s">
+      <c r="E370" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="E369"/>
-    </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A370" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C370" s="1" t="s">
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A371" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C371" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="E370"/>
-    </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A371" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C371" s="1" t="s">
+      <c r="E371" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="E371"/>
-    </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A372" s="1" t="s">
         <v>25</v>
       </c>
@@ -7149,144 +7137,144 @@
         <v>622</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A373" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C373" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E373" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A374" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C374" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E374" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A375" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C375" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E375" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A376" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C376" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="E373" s="1" t="s">
+      <c r="E376" s="1" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A374" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C374" s="1" t="s">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A377" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C377" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="E374" s="1" t="s">
+      <c r="E377"/>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A378" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C378" s="1" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A375" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C375" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E375" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A376" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C376" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E376" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A377" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C377" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E377" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A378" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C378" s="1" t="s">
+      <c r="E378"/>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A379" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C379" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="E378" s="1" t="s">
+      <c r="E379"/>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A380" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C380" s="1" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A379" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C379" s="1" t="s">
+      <c r="E380" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="E379"/>
-    </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A380" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C380" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="E380"/>
-    </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A381" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="E381"/>
-    </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="E381" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A382" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>632</v>
+        <v>34</v>
       </c>
       <c r="E382" s="1" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A383" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="E383" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A384" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>34</v>
+        <v>630</v>
       </c>
       <c r="E384" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A385" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>40</v>
+        <v>632</v>
       </c>
       <c r="E385" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A386" s="1" t="s">
         <v>25</v>
       </c>
@@ -7297,7 +7285,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A387" s="1" t="s">
         <v>25</v>
       </c>
@@ -7308,7 +7296,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A388" s="1" t="s">
         <v>25</v>
       </c>
@@ -7319,7 +7307,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A389" s="1" t="s">
         <v>25</v>
       </c>
@@ -7330,7 +7318,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A390" s="1" t="s">
         <v>25</v>
       </c>
@@ -7341,7 +7329,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A391" s="1" t="s">
         <v>25</v>
       </c>
@@ -7352,7 +7340,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A392" s="1" t="s">
         <v>25</v>
       </c>
@@ -7363,7 +7351,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A393" s="1" t="s">
         <v>25</v>
       </c>
@@ -7374,7 +7362,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A394" s="1" t="s">
         <v>25</v>
       </c>
@@ -7385,7 +7373,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A395" s="1" t="s">
         <v>25</v>
       </c>
@@ -7396,7 +7384,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A396" s="1" t="s">
         <v>25</v>
       </c>
@@ -7407,7 +7395,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A397" s="1" t="s">
         <v>25</v>
       </c>
@@ -7418,7 +7406,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A398" s="1" t="s">
         <v>25</v>
       </c>
@@ -7429,7 +7417,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A399" s="1" t="s">
         <v>25</v>
       </c>
@@ -7440,7 +7428,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A400" s="1" t="s">
         <v>25</v>
       </c>
@@ -7451,7 +7439,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A401" s="1" t="s">
         <v>25</v>
       </c>
@@ -7462,7 +7450,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A402" s="1" t="s">
         <v>25</v>
       </c>
@@ -7473,38 +7461,38 @@
         <v>667</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A403" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C403" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="E403" s="1" t="s">
+      <c r="E403"/>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A404" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C404" s="1" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A404" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C404" s="1" t="s">
+      <c r="E404" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="E404" s="1" t="s">
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A405" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C405" s="1" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A405" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C405" s="1" t="s">
+      <c r="E405" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="E405"/>
-    </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A406" s="1" t="s">
         <v>25</v>
       </c>
@@ -7515,7 +7503,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A407" s="1" t="s">
         <v>25</v>
       </c>
@@ -7526,7 +7514,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A408" s="1" t="s">
         <v>25</v>
       </c>
@@ -7537,7 +7525,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A409" s="1" t="s">
         <v>25</v>
       </c>
@@ -7548,7 +7536,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A410" s="1" t="s">
         <v>25</v>
       </c>
@@ -7559,38 +7547,38 @@
         <v>682</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A411" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C411" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="E411" s="1" t="s">
+      <c r="E411"/>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A412" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C412" s="1" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A412" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C412" s="1" t="s">
+      <c r="E412" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="E412" s="1" t="s">
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A413" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C413" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A413" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C413" s="1" t="s">
+      <c r="E413" s="1" t="s">
         <v>687</v>
       </c>
-      <c r="E413"/>
-    </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A414" s="1" t="s">
         <v>25</v>
       </c>
@@ -7601,7 +7589,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A415" s="1" t="s">
         <v>25</v>
       </c>
@@ -7612,7 +7600,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A416" s="1" t="s">
         <v>25</v>
       </c>
@@ -7623,7 +7611,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A417" s="1" t="s">
         <v>25</v>
       </c>
@@ -7634,7 +7622,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A418" s="1" t="s">
         <v>25</v>
       </c>
@@ -7645,7 +7633,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A419" s="1" t="s">
         <v>25</v>
       </c>
@@ -7656,7 +7644,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A420" s="1" t="s">
         <v>25</v>
       </c>
@@ -7667,7 +7655,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A421" s="1" t="s">
         <v>25</v>
       </c>
@@ -7678,7 +7666,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A422" s="1" t="s">
         <v>25</v>
       </c>
@@ -7689,7 +7677,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A423" s="1" t="s">
         <v>25</v>
       </c>
@@ -7700,56 +7688,56 @@
         <v>707</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A424" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C424" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="E424" s="1" t="s">
+      <c r="E424"/>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A425" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C425" s="1" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A425" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C425" s="1" t="s">
+      <c r="E425"/>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A426" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C426" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="E425" s="1" t="s">
+      <c r="E426"/>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A427" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C427" s="1" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A426" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C426" s="1" t="s">
+      <c r="E427" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="E426"/>
-    </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A427" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C427" s="1" t="s">
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A428" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C428" s="1" t="s">
         <v>713</v>
       </c>
-      <c r="E427"/>
-    </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A428" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C428" s="1" t="s">
+      <c r="E428" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="E428"/>
-    </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A429" s="1" t="s">
         <v>25</v>
       </c>
@@ -7760,7 +7748,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A430" s="1" t="s">
         <v>25</v>
       </c>
@@ -7771,56 +7759,56 @@
         <v>718</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A431" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C431" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="E431" s="1" t="s">
+      <c r="E431"/>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A432" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C432" s="1" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A432" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C432" s="1" t="s">
+      <c r="E432"/>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A433" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C433" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="E432" s="1" t="s">
+      <c r="E433"/>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A434" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C434" s="1" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A433" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C433" s="1" t="s">
+      <c r="E434" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="E433"/>
-    </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A434" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C434" s="1" t="s">
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A435" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C435" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="E434"/>
-    </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A435" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C435" s="1" t="s">
+      <c r="E435" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="E435"/>
-    </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A436" s="1" t="s">
         <v>25</v>
       </c>
@@ -7831,7 +7819,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A437" s="1" t="s">
         <v>25</v>
       </c>
@@ -7842,7 +7830,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A438" s="1" t="s">
         <v>25</v>
       </c>
@@ -7853,7 +7841,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A439" s="1" t="s">
         <v>25</v>
       </c>
@@ -7864,7 +7852,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A440" s="1" t="s">
         <v>25</v>
       </c>
@@ -7875,7 +7863,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A441" s="1" t="s">
         <v>25</v>
       </c>
@@ -7886,7 +7874,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A442" s="1" t="s">
         <v>25</v>
       </c>
@@ -7897,7 +7885,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A443" s="1" t="s">
         <v>25</v>
       </c>
@@ -7908,7 +7896,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A444" s="1" t="s">
         <v>25</v>
       </c>
@@ -7916,87 +7904,87 @@
         <v>742</v>
       </c>
       <c r="E444" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A445" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C445" s="1" t="s">
         <v>743</v>
       </c>
-    </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A445" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C445" s="1" t="s">
+      <c r="E445" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="E445" s="1" t="s">
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A446" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C446" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E446" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A447" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C447" s="1" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A446" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C446" s="1" t="s">
+      <c r="E447" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="E446" s="1" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A447" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C447" s="1" t="s">
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A448" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C448" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="E447" s="1" t="s">
+      <c r="E448" s="1" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A448" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C448" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E448" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A449" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C449" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E449" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A450" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C450" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="E449" s="1" t="s">
+      <c r="E450" s="1" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A450" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C450" s="1" t="s">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A451" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C451" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="E450" s="1" t="s">
+      <c r="E451" s="1" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A451" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C451" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E451" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A452" s="1" t="s">
         <v>25</v>
       </c>
@@ -8007,7 +7995,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A453" s="1" t="s">
         <v>25</v>
       </c>
@@ -8018,7 +8006,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A454" s="1" t="s">
         <v>25</v>
       </c>
@@ -8029,7 +8017,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A455" s="1" t="s">
         <v>25</v>
       </c>
@@ -8040,7 +8028,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A456" s="1" t="s">
         <v>25</v>
       </c>
@@ -8051,7 +8039,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A457" s="1" t="s">
         <v>25</v>
       </c>
@@ -8062,7 +8050,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A458" s="1" t="s">
         <v>25</v>
       </c>
@@ -8073,7 +8061,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A459" s="1" t="s">
         <v>25</v>
       </c>
@@ -8084,7 +8072,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A460" s="1" t="s">
         <v>25</v>
       </c>
@@ -8095,7 +8083,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A461" s="1" t="s">
         <v>25</v>
       </c>
@@ -8106,7 +8094,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A462" s="1" t="s">
         <v>25</v>
       </c>
@@ -8117,7 +8105,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A463" s="1" t="s">
         <v>25</v>
       </c>
@@ -8128,7 +8116,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A464" s="1" t="s">
         <v>25</v>
       </c>
@@ -8139,7 +8127,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A465" s="1" t="s">
         <v>25</v>
       </c>
@@ -8150,7 +8138,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A466" s="1" t="s">
         <v>25</v>
       </c>
@@ -8161,7 +8149,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A467" s="1" t="s">
         <v>25</v>
       </c>
@@ -8172,7 +8160,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A468" s="1" t="s">
         <v>25</v>
       </c>
@@ -8183,58 +8171,58 @@
         <v>786</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A469" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C469" s="1" t="s">
         <v>787</v>
       </c>
-      <c r="E469" s="1" t="s">
+      <c r="E469"/>
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A470" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C470" s="1" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A470" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C470" s="1" t="s">
+      <c r="E470" s="1" t="s">
         <v>789</v>
       </c>
-      <c r="E470" s="1" t="s">
+    </row>
+    <row r="471" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A471" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C471" s="1" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A471" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C471" s="1" t="s">
+      <c r="E471"/>
+    </row>
+    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A472" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C472" s="1" t="s">
         <v>791</v>
       </c>
-      <c r="E471"/>
-    </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A472" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C472" s="1" t="s">
+      <c r="E472" s="1" t="s">
         <v>792</v>
       </c>
-      <c r="E472" s="1" t="s">
+    </row>
+    <row r="473" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A473" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C473" s="1" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A473" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C473" s="1" t="s">
+      <c r="E473" s="1" t="s">
         <v>794</v>
       </c>
-      <c r="E473"/>
-    </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A474" s="1" t="s">
         <v>25</v>
       </c>
@@ -8245,7 +8233,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A475" s="1" t="s">
         <v>25</v>
       </c>
@@ -8256,7 +8244,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A476" s="1" t="s">
         <v>25</v>
       </c>
@@ -8267,7 +8255,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A477" s="1" t="s">
         <v>25</v>
       </c>
@@ -8278,7 +8266,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A478" s="1" t="s">
         <v>25</v>
       </c>
@@ -8289,7 +8277,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A479" s="1" t="s">
         <v>25</v>
       </c>
@@ -8300,7 +8288,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A480" s="1" t="s">
         <v>25</v>
       </c>
@@ -8311,7 +8299,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A481" s="1" t="s">
         <v>25</v>
       </c>
@@ -8322,7 +8310,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A482" s="1" t="s">
         <v>25</v>
       </c>
@@ -8333,7 +8321,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A483" s="1" t="s">
         <v>25</v>
       </c>
@@ -8344,7 +8332,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A484" s="1" t="s">
         <v>25</v>
       </c>
@@ -8355,7 +8343,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A485" s="1" t="s">
         <v>25</v>
       </c>
@@ -8366,7 +8354,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A486" s="1" t="s">
         <v>25</v>
       </c>
@@ -8377,7 +8365,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A487" s="1" t="s">
         <v>25</v>
       </c>
@@ -8388,38 +8376,38 @@
         <v>822</v>
       </c>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A488" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C488" s="1" t="s">
         <v>823</v>
       </c>
-      <c r="E488" s="1" t="s">
+      <c r="E488"/>
+    </row>
+    <row r="489" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A489" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C489" s="1" t="s">
         <v>824</v>
       </c>
-    </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A489" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C489" s="1" t="s">
+      <c r="E489" s="1" t="s">
         <v>825</v>
       </c>
-      <c r="E489" s="1" t="s">
+    </row>
+    <row r="490" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A490" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C490" s="1" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A490" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C490" s="1" t="s">
+      <c r="E490" s="1" t="s">
         <v>827</v>
       </c>
-      <c r="E490"/>
-    </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="491" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A491" s="1" t="s">
         <v>25</v>
       </c>
@@ -8430,7 +8418,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A492" s="1" t="s">
         <v>25</v>
       </c>
@@ -8441,7 +8429,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A493" s="1" t="s">
         <v>25</v>
       </c>
@@ -8452,7 +8440,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A494" s="1" t="s">
         <v>25</v>
       </c>
@@ -8463,7 +8451,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A495" s="1" t="s">
         <v>25</v>
       </c>
@@ -8474,7 +8462,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A496" s="1" t="s">
         <v>25</v>
       </c>
@@ -8485,7 +8473,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A497" s="1" t="s">
         <v>25</v>
       </c>
@@ -8496,7 +8484,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A498" s="1" t="s">
         <v>25</v>
       </c>
@@ -8507,7 +8495,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A499" s="1" t="s">
         <v>25</v>
       </c>
@@ -8518,7 +8506,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A500" s="1" t="s">
         <v>25</v>
       </c>
@@ -8529,85 +8517,79 @@
         <v>847</v>
       </c>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A501" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C501" s="1" t="s">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B502" s="1" t="s">
         <v>848</v>
       </c>
-      <c r="E501" s="1" t="s">
+    </row>
+    <row r="503" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A503" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C503" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="E503" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A504" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C504" s="1" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A502" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C502" s="1" t="s">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A505" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C505" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A506" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C506" s="1" t="s">
         <v>850</v>
       </c>
-      <c r="E502" s="1" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B504" s="1" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A505" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C505" s="1" t="s">
-        <v>887</v>
-      </c>
-      <c r="E505" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A506" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C506" s="1" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="507" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A507" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C507" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A508" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C508" s="1" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A509" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C509" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A510" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C510" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A511" s="1" t="s">
         <v>25</v>
       </c>
@@ -8615,7 +8597,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A512" s="1" t="s">
         <v>25</v>
       </c>
@@ -8623,279 +8605,279 @@
         <v>132</v>
       </c>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A513" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C513" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A514" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C514" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A514" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C514" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A515" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C515" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A516" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C516" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A517" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C517" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A518" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C518" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A519" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C519" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A520" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C520" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A521" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C521" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A522" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C522" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A523" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C523" s="1" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A524" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C524" s="1" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A525" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C525" s="1" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A526" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C526" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A527" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C527" s="1" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A521" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C521" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A522" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C522" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A523" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C523" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A524" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C524" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A525" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C525" s="1" t="s">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A528" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C528" s="1" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A526" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C526" s="1" t="s">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A529" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C529" s="1" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A527" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C527" s="1" t="s">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A530" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C530" s="1" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A528" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C528" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A529" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C529" s="1" t="s">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A531" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C531" s="1" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A530" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C530" s="1" t="s">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A532" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C532" s="1" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A531" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C531" s="1" t="s">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A533" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C533" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A534" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C534" s="1" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A532" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C532" s="1" t="s">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A535" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C535" s="1" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A533" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C533" s="1" t="s">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A536" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C536" s="1" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A534" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C534" s="1" t="s">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A537" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C537" s="1" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A535" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C535" s="1" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A536" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C536" s="1" t="s">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A538" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C538" s="1" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A537" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C537" s="1" t="s">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A539" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C539" s="1" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A538" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C538" s="1" t="s">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A540" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C540" s="1" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A539" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C539" s="1" t="s">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A541" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C541" s="1" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A540" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C540" s="1" t="s">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A542" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C542" s="1" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A541" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C541" s="1" t="s">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A543" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C543" s="1" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A542" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C542" s="1" t="s">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A544" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C544" s="1" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A543" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C543" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A544" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C544" s="1" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A545" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C545" s="1" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A546" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C546" s="1" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A547" s="1" t="s">
         <v>25</v>
       </c>
@@ -8903,169 +8885,153 @@
         <v>561</v>
       </c>
     </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A548" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C548" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A549" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C549" s="1" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A549" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C549" s="1" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A550" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C550" s="1" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A551" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C551" s="1" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A552" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C552" s="1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A553" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C553" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A554" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C554" s="1" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A555" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C555" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A556" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C556" s="1" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A557" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C557" s="1" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A558" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C558" s="1" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A559" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C559" s="1" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A560" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C560" s="1" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A553" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C553" s="1" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A554" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C554" s="1" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A555" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C555" s="1" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A556" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C556" s="1" t="s">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A561" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C561" s="1" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A557" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C557" s="1" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A558" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C558" s="1" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A559" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C559" s="1" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A560" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C560" s="1" t="s">
+    <row r="562" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A562" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C562" s="1" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A561" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C561" s="1" t="s">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A563" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C563" s="1" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A562" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C562" s="1" t="s">
+    <row r="564" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A564" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C564" s="1" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A563" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C563" s="1" t="s">
+    <row r="565" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A565" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C565" s="1" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A564" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C564" s="1" t="s">
+    <row r="567" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A567" s="1" t="s">
         <v>882</v>
-      </c>
-    </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A565" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C565" s="1" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A566" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C566" s="1" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A567" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C567" s="1" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A569" s="1" t="s">
-        <v>886</v>
       </c>
     </row>
   </sheetData>
@@ -9083,7 +9049,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9095,7 +9061,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
